--- a/Tableaux_v10.xlsx
+++ b/Tableaux_v10.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="149">
   <si>
     <t xml:space="preserve">Tableau 1 Description des signaux du schéma de la figure 1</t>
   </si>
@@ -126,16 +126,13 @@
     <t xml:space="preserve">IF</t>
   </si>
   <si>
-    <t xml:space="preserve">verif</t>
+    <t xml:space="preserve">og</t>
   </si>
   <si>
     <t xml:space="preserve">SIGNAL IF_PCNext            : std_logic_vector(31 DOWNTO 0);</t>
   </si>
   <si>
     <t xml:space="preserve">prochaine valeur de pc sans branchement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a changer</t>
   </si>
   <si>
     <t xml:space="preserve">SIGNAL IF_PC                : std_logic_vector(31 DOWNTO 0);</t>
@@ -174,22 +171,28 @@
     <t xml:space="preserve">passage de PC au prochain étage</t>
   </si>
   <si>
+    <t xml:space="preserve">T,ID,EX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL IF_ID_Instruction    : std_logic_vector(31 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instruction à décoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL IF_ID_Instruction    : std_logic_vector(31 DOWNTO 0);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instruction à décoder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
     <t xml:space="preserve">SIGNAL ID_PCJump            : std_logic_vector(31 DOWNTO 0);</t>
   </si>
   <si>
     <t xml:space="preserve">prochaon PC en cas de saut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T,ID</t>
   </si>
   <si>
     <t xml:space="preserve">SIGNAL ID_SignImm           : std_logic_vector(31 DOWNTO 0);</t>
@@ -267,25 +270,59 @@
     <t xml:space="preserve">valeur contenue dans le registre ra2</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL ID_Jump              : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_MemtoReg          : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_MemWrite          : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_MemRead           :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_Branch            : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_AluSrc            : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_RegDst            : </t>
+    <t xml:space="preserve">SIGNAL ID_Jump              : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal qui indique qu’il faut prendre l’addresse de saut au lieu de pc+4 ou branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_MemtoReg          : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal qui active le mux pour lire de la memoire au lieu de l’alu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_MemWrite          : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active l’ecriture de la mémoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T,EX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_MemRead           : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active la lecture de la mémoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_Branch            : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active le branchement (si la sortie de l’ual est 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T'EX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_AluSrc            : std_logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifie l’entrée B de l’alu dans le cas d’une valeur immediate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_RegDst            : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectione l’endroit ou le registre a modifier est dans l’instruction
+(I et R sont différent)</t>
   </si>
   <si>
     <t xml:space="preserve">SIGNAL ID_RegWrite          : std_logic;</t>
@@ -295,22 +332,64 @@
 Participe à l'unité d'envoi pour sélectionner l'opérande de l'UAL</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T,ID,EX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_AluControl        :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL EX_PCBranch          :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL EX_PCSrc             : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL EX_SignImmSh         : </t>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_AluControl        : std_logic_vector(4 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal qui contrôle l’alu à partir de alucon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL EX_PCBranch          : std_logic;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SIGNAL EX_PCSrc             : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">std_logic;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">choisi entre addresse de branchement et pc normal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SIGNAL EX_SignImmSh         : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">std_logic_vector(31 DOWNTO 0);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension de valeur la immediate pour calcul d’Addresse de branchement</t>
   </si>
   <si>
     <t xml:space="preserve">SIGNAL EX_ForwardA          : std_logic_vector(1 DOWNTO 0);</t>
@@ -319,10 +398,52 @@
     <t xml:space="preserve">Sortie de l’unité d'envoi qui sélectionne l'opérande SrcA de l'UAL</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL EX_ForwardB          : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL EX_preSrcB          :</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SIGNAL EX_ForwardB          : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">std_logic_vector(1 DOWNTO 0);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sortie de l’unité d'envoi qui sélectionne l'opérande SrcB de l'UAL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SIGNAL EX_preSrcB           : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">std_logic_vector(31 DOWNTO 0);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">signal entre les mux forwardB et srcB</t>
   </si>
   <si>
     <t xml:space="preserve">SIGNAL EX_SrcB              :</t>
@@ -366,9 +487,6 @@
   </si>
   <si>
     <t xml:space="preserve">Active le branchement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
   </si>
   <si>
     <t xml:space="preserve">SIGNAL EX_cout              : </t>
@@ -1011,7 +1129,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1050,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>3</v>
       </c>
@@ -1086,19 +1204,16 @@
       <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>54</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
@@ -1112,10 +1227,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
@@ -1129,16 +1244,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,21 +1261,24 @@
         <v>31</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
+      <c r="F8" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>24</v>
@@ -1172,10 +1290,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,16 +1298,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,16 +1315,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,16 +1332,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,33 +1349,33 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>60</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,169 +1383,275 @@
         <v>61</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="B18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="5" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+      <c r="B27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
+      <c r="A28" s="5" t="n">
+        <v>26</v>
+      </c>
       <c r="B28" s="6" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="B29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
@@ -1439,7 +1660,7 @@
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
@@ -1448,7 +1669,7 @@
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
@@ -1457,7 +1678,7 @@
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
@@ -1466,7 +1687,7 @@
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="5"/>
@@ -1475,7 +1696,7 @@
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="6" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="5"/>
@@ -1484,7 +1705,7 @@
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="6" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="5"/>
@@ -1493,7 +1714,7 @@
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="5"/>
@@ -1502,22 +1723,22 @@
     <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9"/>
       <c r="B39" s="6" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="5"/>
@@ -1526,7 +1747,7 @@
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="5"/>
@@ -1535,37 +1756,37 @@
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
       <c r="B44" s="6" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="5"/>
@@ -1574,7 +1795,7 @@
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
       <c r="B45" s="6" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="5"/>
@@ -1583,22 +1804,22 @@
     <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5"/>
       <c r="B46" s="6" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5"/>
       <c r="B47" s="6" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="5"/>
@@ -1607,7 +1828,7 @@
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5"/>
       <c r="B48" s="6" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="5"/>
@@ -1616,7 +1837,7 @@
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="9"/>
@@ -1625,7 +1846,7 @@
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="9"/>
@@ -1634,7 +1855,7 @@
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="9"/>
@@ -1642,25 +1863,25 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="9"/>
@@ -1669,7 +1890,7 @@
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="9"/>
@@ -1678,7 +1899,7 @@
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9"/>
       <c r="B55" s="10" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="9"/>
@@ -1687,7 +1908,7 @@
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="9"/>
@@ -1696,22 +1917,22 @@
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9"/>
       <c r="B57" s="10" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="9"/>
@@ -1720,7 +1941,7 @@
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="9"/>
@@ -1728,13 +1949,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -1742,7 +1963,7 @@
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9"/>
       <c r="B61" s="10" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="9"/>
@@ -1751,7 +1972,7 @@
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9"/>
       <c r="B62" s="10" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="9"/>
@@ -1760,7 +1981,7 @@
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9"/>
       <c r="B63" s="10" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="9"/>
@@ -1769,22 +1990,22 @@
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9"/>
       <c r="B64" s="10" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9"/>
       <c r="B65" s="10" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="9"/>
@@ -1793,7 +2014,7 @@
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9"/>
       <c r="B66" s="10" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="9"/>
@@ -1801,19 +2022,19 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,7 +2046,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -1835,7 +2056,7 @@
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="16"/>
       <c r="B70" s="17" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -1844,7 +2065,7 @@
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="18"/>
       <c r="B71" s="19" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
@@ -1853,7 +2074,7 @@
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="18"/>
       <c r="B72" s="19" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
@@ -1862,7 +2083,7 @@
     <row r="73" customFormat="false" ht="40.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="18"/>
       <c r="B73" s="19" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
@@ -1911,7 +2132,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -1936,7 +2157,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="22" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -1960,7 +2181,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="23" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B3" s="23" t="n">
         <v>20</v>
@@ -2025,7 +2246,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -2050,7 +2271,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -2071,15 +2292,15 @@
       <c r="R5" s="25"/>
       <c r="S5" s="25"/>
       <c r="T5" s="25" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="U5" s="25" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -2099,16 +2320,16 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="27" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="T6" s="27" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="U6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -2133,7 +2354,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -2158,7 +2379,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -2183,7 +2404,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -2202,21 +2423,21 @@
       <c r="P10" s="31"/>
       <c r="Q10" s="31"/>
       <c r="R10" s="31" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="S10" s="31" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="T10" s="32" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="U10" s="32" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -2241,7 +2462,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -2266,7 +2487,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -2291,7 +2512,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -2316,7 +2537,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -2341,7 +2562,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -2359,24 +2580,24 @@
       <c r="O16" s="35"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="S16" s="32" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="T16" s="32" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="U16" s="32" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -2401,7 +2622,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -2426,7 +2647,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="36" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -2443,27 +2664,27 @@
       <c r="N19" s="37"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="37" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="R19" s="32" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="S19" s="32" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="T19" s="32" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="33" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -2488,7 +2709,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -2513,7 +2734,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="38" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
@@ -2538,7 +2759,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="38" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
@@ -2563,12 +2784,12 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="39" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Tableaux_v10.xlsx
+++ b/Tableaux_v10.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="176">
   <si>
     <t xml:space="preserve">Tableau 1 Description des signaux du schéma de la figure 1</t>
   </si>
@@ -96,25 +96,7 @@
 actif</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SIGNAL IF_PCNextBr          : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">std_logic_vector(31 DOWNTO 0);</t>
-    </r>
+    <t xml:space="preserve">SIGNAL IF_PCNextBr          : std_logic_vector(31 DOWNTO 0);</t>
   </si>
   <si>
     <t xml:space="preserve">prochaine valeur de PC pour branchement</t>
@@ -147,25 +129,7 @@
     <t xml:space="preserve">prochaine instruction à décoder</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SIGNAL IF_ID_PCPlus4        : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">std_logic_vector(31 DOWNTO 0);</t>
-    </r>
+    <t xml:space="preserve">SIGNAL IF_ID_PCPlus4        : std_logic_vector(31 DOWNTO 0);</t>
   </si>
   <si>
     <t xml:space="preserve">passage de PC au prochain étage</t>
@@ -210,61 +174,25 @@
     <t xml:space="preserve">registre ra1 du banc de registres</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL ID_rt                : std_logic_vector(6 DOWNTO 0);</t>
+    <t xml:space="preserve">SIGNAL ID_rt                : std_logic_vector(5 DOWNTO 0);</t>
   </si>
   <si>
     <t xml:space="preserve">registre ra2 du banc de registres</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL ID_rd                : std_logic_vector(6 DOWNTO 0);</t>
+    <t xml:space="preserve">SIGNAL ID_rd                : std_logic_vector(5 DOWNTO 0);</t>
   </si>
   <si>
     <t xml:space="preserve">registre wa1 du banc de registres</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SIGNAL ID_rd1               : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">std_logic_vector(31 DOWNTO 0);</t>
-    </r>
+    <t xml:space="preserve">SIGNAL ID_rd1               : std_logic_vector(31 DOWNTO 0);</t>
   </si>
   <si>
     <t xml:space="preserve">valeur contenue dans le registre ra1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SIGNAL ID_rd2               : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">std_logic_vector(31 DOWNTO 0);</t>
-    </r>
+    <t xml:space="preserve">SIGNAL ID_rd2               : std_logic_vector(31 DOWNTO 0);</t>
   </si>
   <si>
     <t xml:space="preserve">valeur contenue dans le registre ra2</t>
@@ -285,7 +213,7 @@
     <t xml:space="preserve">signal qui active le mux pour lire de la memoire au lieu de l’alu</t>
   </si>
   <si>
-    <t xml:space="preserve">WB</t>
+    <t xml:space="preserve">T,WB</t>
   </si>
   <si>
     <t xml:space="preserve">SIGNAL ID_MemWrite          : std_logic;</t>
@@ -310,6 +238,9 @@
   </si>
   <si>
     <t xml:space="preserve">T'EX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
   </si>
   <si>
     <t xml:space="preserve">SIGNAL ID_AluSrc            : std_logic</t>
@@ -332,9 +263,6 @@
 Participe à l'unité d'envoi pour sélectionner l'opérande de l'UAL</t>
   </si>
   <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
     <t xml:space="preserve">SIGNAL ID_AluControl        : std_logic_vector(4 DOWNTO 0);</t>
   </si>
   <si>
@@ -344,49 +272,16 @@
     <t xml:space="preserve">SIGNAL EX_PCBranch          : std_logic;</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SIGNAL EX_PCSrc             : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">std_logic;</t>
-    </r>
+    <t xml:space="preserve">addresse de branchement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL EX_PCSrc             : std_logic;</t>
   </si>
   <si>
     <t xml:space="preserve">choisi entre addresse de branchement et pc normal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SIGNAL EX_SignImmSh         : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">std_logic_vector(31 DOWNTO 0);</t>
-    </r>
+    <t xml:space="preserve">SIGNAL EX_SignImmSh         : std_logic_vector(31 DOWNTO 0);</t>
   </si>
   <si>
     <t xml:space="preserve">Extension de valeur la immediate pour calcul d’Addresse de branchement</t>
@@ -398,76 +293,61 @@
     <t xml:space="preserve">Sortie de l’unité d'envoi qui sélectionne l'opérande SrcA de l'UAL</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SIGNAL EX_ForwardB          : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">std_logic_vector(1 DOWNTO 0);</t>
-    </r>
+    <t xml:space="preserve">SIGNAL EX_ForwardB          : std_logic_vector(1 DOWNTO 0);</t>
   </si>
   <si>
     <t xml:space="preserve">Sortie de l’unité d'envoi qui sélectionne l'opérande SrcB de l'UAL</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SIGNAL EX_preSrcB           : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">std_logic_vector(31 DOWNTO 0);</t>
-    </r>
+    <t xml:space="preserve">SIGNAL EX_preSrcB           : std_logic_vector(31 DOWNTO 0);</t>
   </si>
   <si>
     <t xml:space="preserve">signal entre les mux forwardB et srcB</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL EX_SrcB              :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL EX_SrcA              : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL EX_AluResult         : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL EX_Zero              : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_EX_AluSrc         : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_EX_RegDst         : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_EX_AluControl     : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL EX_WriteReg          : </t>
+    <t xml:space="preserve">T,EX,MEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL EX_SrcB              : std_logic_vector(31 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrée b de l’alu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL EX_SrcA              : std_logic_vector(31 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrée a de l’alu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL EX_AluResult         : std_logic_vector(31 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sortie de l’alu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T,EX,WB,ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL EX_Zero              : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sortie zero de l’alu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_EX_AluSrc         : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_EX_RegDst         : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_EX_AluControl     : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL EX_WriteReg          : std_logic_vector(5 DOWNTO 0); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">addresse du registre a modifier</t>
   </si>
   <si>
     <t xml:space="preserve">SIGNAL ID_EX_rt             : std_logic_vector(4 DOWNTO 0);</t>
@@ -477,10 +357,19 @@
 Participe à l'unité d'envoi pour sélectionner l'opérande de l'UAL</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL ID_EX_rs             : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_EX_rd1            : </t>
+    <t xml:space="preserve">SIGNAL ID_EX_rs             : std_logic_vector(5 DOWNTO 0); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">addresse du registre RS provenant de l’instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_EX_rd1            : std_logic_vector(31 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur contenue dans le registre ra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex</t>
   </si>
   <si>
     <t xml:space="preserve">SIGNAL ID_EX_Branch         : std_logic;</t>
@@ -489,34 +378,58 @@
     <t xml:space="preserve">Active le branchement</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL EX_cout              : </t>
+    <t xml:space="preserve">SIGNAL EX_cout              : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carry out de l’alu</t>
   </si>
   <si>
     <t xml:space="preserve">- - -</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL ID_EX_MemWrite       : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_EX_MemRead        : </t>
+    <t xml:space="preserve">SIGNAL ID_EX_MemWrite       : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active l’écriture dans la mémoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T,MEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_EX_MemRead        : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active la lecture dans la mémoire</t>
   </si>
   <si>
     <t xml:space="preserve">SIGNAL ID_EX_RegWrite       : std_logic;</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL ID_EX_MemtoReg       : std_logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_EX_SignImm        : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_EX_rd             : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_EX_rd2            : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL ID_EX_PCPlus4        : </t>
+    <t xml:space="preserve">SIGNAL ID_EX_MemtoReg       : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active le transfer d’une valeur en mémoire dans un registre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_EX_SignImm        : std_logic_vector(31 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_EX_rd             : std_logic_vector(31 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur contenue dans le registre rd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_EX_rd2            : std_logic_vector(31 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur contenue dans le registre rd2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL ID_EX_PCPlus4        : std_logic_vector(31 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prochaine valeur de PC  sur son chemin normal</t>
   </si>
   <si>
     <t xml:space="preserve">SIGNAL ID_EX_instruction    : std_logic_vector(31 DOWNTO 0);</t>
@@ -525,52 +438,77 @@
     <t xml:space="preserve">Utilisé pour déboguer. Assigné à aucune logique dans le circuit</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL EX_MEM_AluResult     : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL EX_MEM_MemWrite      : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL EX_MEM_MemRead       : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL EX_MEM_MemtoReg      : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL EX_MEM_RegWrite      : </t>
+    <t xml:space="preserve">SIGNAL EX_MEM_AluResult     : std_logic_vector(31 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resultat de l’opération de l’ALU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T,MEM,WB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL EX_MEM_MemWrite      : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL EX_MEM_MemRead       : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL EX_MEM_MemtoReg      : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active la lecture d’une case memoire au lieu de aluresult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL EX_MEM_RegWrite      : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active l’écriture dans le banc de registre.
+Détermine l'opérande source pour l'UAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL EX_MEM_preSrcB       : std_logic_vector(31 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL EX_MEM_WriteReg      : std_logic_vector(5 DOWNTO 0); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL EX_MEM_instruction   : std_logic_vector(31 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL WB_Result            : std_logic_vector(31 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sortie de l’étage writeback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID,EX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL MEM_WB_WriteReg      : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active l’écriture dans le banc de registre. (décalé par les étages du pipeline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL MEM_WB_MemtoReg      : std_logic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL MEM_WB_RegWrite      : std_logic;</t>
   </si>
   <si>
     <t xml:space="preserve">Active l’écriture dans le banc de registre. Détermine l'opérande source pour l'UAL</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNAL EX_MEM_preSrcB       : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL EX_MEM_WriteReg      : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL EX_MEM_instruction   : std_logic_vector(31 DOWNTO 0);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL WB_Result            : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL MEM_WB_WriteReg      : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL MEM_WB_MemtoReg      : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL MEM_WB_RegWrite      : std_logic;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID,EX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL MEM_WB_AluResult     : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNAL MEM_WB_readdata      : </t>
+    <t xml:space="preserve">SIGNAL MEM_WB_AluResult     : std_logic_vector(31 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNAL MEM_WB_readdata      : std_logic_vector(31 DOWNTO 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sortie de la mémoire</t>
   </si>
   <si>
     <t xml:space="preserve">SIGNAL MEM_WB_instruction   : std_logic_vector(31 DOWNTO 0);</t>
@@ -679,7 +617,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -738,12 +676,6 @@
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b val="true"/>
@@ -888,7 +820,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -929,14 +861,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -949,11 +873,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -973,7 +897,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -985,67 +909,59 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1128,17 +1044,17 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6"/>
   </cols>
   <sheetData>
@@ -1414,7 +1330,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>43</v>
@@ -1431,7 +1347,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>46</v>
@@ -1480,21 +1396,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <v>25</v>
+    <row r="21" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1502,38 +1418,38 @@
         <v>28</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>61</v>
@@ -1545,18 +1461,18 @@
         <v>42</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>42</v>
@@ -1570,10 +1486,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>42</v>
@@ -1587,10 +1503,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>42</v>
@@ -1604,10 +1520,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>42</v>
@@ -1617,14 +1533,14 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>60</v>
+      <c r="A29" s="5" t="n">
+        <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>42</v>
@@ -1633,100 +1549,168 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>44</v>
+      </c>
       <c r="B30" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5"/>
+      <c r="A32" s="5" t="n">
+        <v>63</v>
+      </c>
       <c r="B32" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5" t="n">
+        <v>42</v>
+      </c>
       <c r="B33" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
+      <c r="A34" s="5" t="n">
+        <v>18</v>
+      </c>
       <c r="B34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>25</v>
+      </c>
       <c r="B35" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="B36" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="B37" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
+        <v>35</v>
+      </c>
       <c r="B38" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9"/>
+        <v>88</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="n">
+        <v>30</v>
+      </c>
       <c r="B39" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>22</v>
@@ -1736,30 +1720,48 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
+      <c r="A40" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="B40" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5"/>
+      <c r="A41" s="5" t="n">
+        <v>22</v>
+      </c>
       <c r="B41" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5"/>
+      <c r="A42" s="5" t="n">
+        <v>19</v>
+      </c>
       <c r="B42" s="6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>42</v>
@@ -1770,44 +1772,64 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>42</v>
@@ -1817,110 +1839,184 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5"/>
+      <c r="A47" s="5" t="n">
+        <v>46</v>
+      </c>
       <c r="B47" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
+        <v>21</v>
+      </c>
       <c r="B48" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>99</v>
+        <v>54</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="A53" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>105</v>
+      <c r="A56" s="9" t="n">
+        <v>51</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="n">
+        <v>51</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>42</v>
@@ -1929,168 +2025,230 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
+    <row r="58" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
+      <c r="A61" s="9" t="n">
+        <v>47</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
+      <c r="A62" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="A63" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>105</v>
+      <c r="A64" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="A65" s="9" t="n">
+        <v>49</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
+      <c r="A66" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>99</v>
+        <v>54</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
+      <c r="A69" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="16"/>
-      <c r="B70" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18"/>
-      <c r="B71" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18"/>
-      <c r="B72" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
     </row>
     <row r="73" customFormat="false" ht="40.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="20"/>
+      <c r="B75" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2118,678 +2276,678 @@
   </sheetPr>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="5" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="5" style="0" width="4.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
+      <c r="B2" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="23" t="n">
+      <c r="A3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="C3" s="23" t="n">
+      <c r="C3" s="21" t="n">
         <v>19</v>
       </c>
-      <c r="D3" s="23" t="n">
+      <c r="D3" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="E3" s="23" t="n">
+      <c r="E3" s="21" t="n">
         <v>17</v>
       </c>
-      <c r="F3" s="23" t="n">
+      <c r="F3" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="G3" s="23" t="n">
+      <c r="G3" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="H3" s="23" t="n">
+      <c r="H3" s="21" t="n">
         <v>14</v>
       </c>
-      <c r="I3" s="23" t="n">
+      <c r="I3" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="J3" s="23" t="n">
+      <c r="J3" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="K3" s="23" t="n">
+      <c r="K3" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="L3" s="23" t="n">
+      <c r="L3" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="M3" s="23" t="n">
+      <c r="M3" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="N3" s="23" t="n">
+      <c r="N3" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="O3" s="23" t="n">
+      <c r="O3" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="P3" s="23" t="n">
+      <c r="P3" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="Q3" s="23" t="n">
+      <c r="Q3" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="R3" s="23" t="n">
+      <c r="R3" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="S3" s="23" t="n">
+      <c r="S3" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="T3" s="23" t="n">
+      <c r="T3" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="U3" s="23" t="n">
+      <c r="U3" s="21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
+      <c r="A4" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>127</v>
+      <c r="A5" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="U5" s="23" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="U6" s="28"/>
+      <c r="A6" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="U6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
+      <c r="A7" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
+      <c r="A8" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
+      <c r="A9" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="S10" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="T10" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>133</v>
+      <c r="A10" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="U10" s="26" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
+      <c r="A11" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
+      <c r="A12" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
+      <c r="A13" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
+      <c r="A14" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
+      <c r="A15" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="R16" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="S16" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="T16" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="U16" s="32" t="s">
-        <v>133</v>
+      <c r="A16" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="R16" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="S16" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="T16" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="U16" s="26" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
+      <c r="A17" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
+      <c r="A18" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q19" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="R19" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="S19" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="T19" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="U19" s="32" t="s">
-        <v>133</v>
+      <c r="A19" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="R19" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="S19" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="T19" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="U19" s="26" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
+      <c r="A20" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
+      <c r="A21" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
+      <c r="A24" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
+      <c r="A25" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39" t="s">
-        <v>147</v>
+      <c r="A26" s="35" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
